--- a/GraficoExcel/excel/Dados coletados - Questionario Socioeconomico_mod2.xlsx
+++ b/GraficoExcel/excel/Dados coletados - Questionario Socioeconomico_mod2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liqui\Desktop\ProjetosJS\GraficoExcel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B03C5-241A-4D5D-93C8-80D3514B7505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4323B27-1F31-46A3-95F9-D725344D85FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="120" windowWidth="22140" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13770" yWindow="465" windowWidth="22140" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -2123,7 +2123,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17609,20 +17609,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="c7782f7c-3682-40ab-87b3-699aa360fab5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="c7782f7c-3682-40ab-87b3-699aa360fab5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17752,19 +17752,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAD65247-0307-4A0C-8C03-61826484DF39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A42055-2B02-4017-B2F7-5D1E3BDC4755}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c7782f7c-3682-40ab-87b3-699aa360fab5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAD65247-0307-4A0C-8C03-61826484DF39}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
